--- a/www/IndicatorsPerCountry/PapuaNewGuinea_CopperProduction_TerritorialRef_1975_2012_CCode_598.xlsx
+++ b/www/IndicatorsPerCountry/PapuaNewGuinea_CopperProduction_TerritorialRef_1975_2012_CCode_598.xlsx
@@ -66,13 +66,13 @@
     <t>Klein Goldewijk, Kees and Jonathan Fink-Jensen (2015). Copper Production. http://hdl.handle.net/10622/GI7D06, accessed via the Clio Infra website.</t>
   </si>
   <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_GI7D06.xml</t>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_GI7D06.xml</t>
   </si>
   <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_GI7D06.ris</t>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_GI7D06.ris</t>
   </si>
   <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_GI7D06.bib</t>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_GI7D06.bib</t>
   </si>
 </sst>
 </file>

--- a/www/IndicatorsPerCountry/PapuaNewGuinea_CopperProduction_TerritorialRef_1975_2012_CCode_598.xlsx
+++ b/www/IndicatorsPerCountry/PapuaNewGuinea_CopperProduction_TerritorialRef_1975_2012_CCode_598.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="872" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="872" uniqueCount="61">
   <si>
     <t>Country Code</t>
   </si>
@@ -37,6 +37,129 @@
   </si>
   <si>
     <t>0</t>
+  </si>
+  <si>
+    <t>124</t>
+  </si>
+  <si>
+    <t>182.9</t>
+  </si>
+  <si>
+    <t>184.1</t>
+  </si>
+  <si>
+    <t>172.5</t>
+  </si>
+  <si>
+    <t>176.5</t>
+  </si>
+  <si>
+    <t>182.3</t>
+  </si>
+  <si>
+    <t>198.6</t>
+  </si>
+  <si>
+    <t>170.8</t>
+  </si>
+  <si>
+    <t>146.8</t>
+  </si>
+  <si>
+    <t>165.42</t>
+  </si>
+  <si>
+    <t>170</t>
+  </si>
+  <si>
+    <t>183.2</t>
+  </si>
+  <si>
+    <t>164.4</t>
+  </si>
+  <si>
+    <t>175</t>
+  </si>
+  <si>
+    <t>178.9</t>
+  </si>
+  <si>
+    <t>217.7</t>
+  </si>
+  <si>
+    <t>218.6</t>
+  </si>
+  <si>
+    <t>204</t>
+  </si>
+  <si>
+    <t>170.2</t>
+  </si>
+  <si>
+    <t>204.5</t>
+  </si>
+  <si>
+    <t>193.4</t>
+  </si>
+  <si>
+    <t>203.945</t>
+  </si>
+  <si>
+    <t>209.329</t>
+  </si>
+  <si>
+    <t>212.737</t>
+  </si>
+  <si>
+    <t>168.024</t>
+  </si>
+  <si>
+    <t>111.7</t>
+  </si>
+  <si>
+    <t>152.2</t>
+  </si>
+  <si>
+    <t>187.921</t>
+  </si>
+  <si>
+    <t>200.9</t>
+  </si>
+  <si>
+    <t>218</t>
+  </si>
+  <si>
+    <t>211.311</t>
+  </si>
+  <si>
+    <t>202.3</t>
+  </si>
+  <si>
+    <t>173.37</t>
+  </si>
+  <si>
+    <t>192.978</t>
+  </si>
+  <si>
+    <t>194.355</t>
+  </si>
+  <si>
+    <t>169.184</t>
+  </si>
+  <si>
+    <t>159.65</t>
+  </si>
+  <si>
+    <t>166.7</t>
+  </si>
+  <si>
+    <t>159.8</t>
+  </si>
+  <si>
+    <t>130.465</t>
+  </si>
+  <si>
+    <t>125.348</t>
   </si>
   <si>
     <t>Description</t>
@@ -4302,7 +4425,7 @@
         <v>1972.0</v>
       </c>
       <c r="E246" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="247">
@@ -4319,7 +4442,7 @@
         <v>1973.0</v>
       </c>
       <c r="E247" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="248">
@@ -4336,7 +4459,7 @@
         <v>1974.0</v>
       </c>
       <c r="E248" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="249">
@@ -4353,7 +4476,7 @@
         <v>1975.0</v>
       </c>
       <c r="E249" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="250">
@@ -4370,7 +4493,7 @@
         <v>1976.0</v>
       </c>
       <c r="E250" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="251">
@@ -4387,7 +4510,7 @@
         <v>1977.0</v>
       </c>
       <c r="E251" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="252">
@@ -4404,7 +4527,7 @@
         <v>1978.0</v>
       </c>
       <c r="E252" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="253">
@@ -4421,7 +4544,7 @@
         <v>1979.0</v>
       </c>
       <c r="E253" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="254">
@@ -4438,7 +4561,7 @@
         <v>1980.0</v>
       </c>
       <c r="E254" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="255">
@@ -4455,7 +4578,7 @@
         <v>1981.0</v>
       </c>
       <c r="E255" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
     </row>
     <row r="256">
@@ -4472,7 +4595,7 @@
         <v>1982.0</v>
       </c>
       <c r="E256" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
     </row>
     <row r="257">
@@ -4489,7 +4612,7 @@
         <v>1983.0</v>
       </c>
       <c r="E257" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
     </row>
     <row r="258">
@@ -4506,7 +4629,7 @@
         <v>1984.0</v>
       </c>
       <c r="E258" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
     </row>
     <row r="259">
@@ -4523,7 +4646,7 @@
         <v>1985.0</v>
       </c>
       <c r="E259" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
     </row>
     <row r="260">
@@ -4540,7 +4663,7 @@
         <v>1986.0</v>
       </c>
       <c r="E260" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
     </row>
     <row r="261">
@@ -4557,7 +4680,7 @@
         <v>1987.0</v>
       </c>
       <c r="E261" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
     </row>
     <row r="262">
@@ -4574,7 +4697,7 @@
         <v>1988.0</v>
       </c>
       <c r="E262" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
     </row>
     <row r="263">
@@ -4591,7 +4714,7 @@
         <v>1989.0</v>
       </c>
       <c r="E263" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
     </row>
     <row r="264">
@@ -4608,7 +4731,7 @@
         <v>1990.0</v>
       </c>
       <c r="E264" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
     </row>
     <row r="265">
@@ -4625,7 +4748,7 @@
         <v>1991.0</v>
       </c>
       <c r="E265" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
     </row>
     <row r="266">
@@ -4642,7 +4765,7 @@
         <v>1992.0</v>
       </c>
       <c r="E266" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
     </row>
     <row r="267">
@@ -4659,7 +4782,7 @@
         <v>1993.0</v>
       </c>
       <c r="E267" t="s">
-        <v>7</v>
+        <v>29</v>
       </c>
     </row>
     <row r="268">
@@ -4676,7 +4799,7 @@
         <v>1994.0</v>
       </c>
       <c r="E268" t="s">
-        <v>7</v>
+        <v>30</v>
       </c>
     </row>
     <row r="269">
@@ -4693,7 +4816,7 @@
         <v>1995.0</v>
       </c>
       <c r="E269" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
     </row>
     <row r="270">
@@ -4710,7 +4833,7 @@
         <v>1996.0</v>
       </c>
       <c r="E270" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
     </row>
     <row r="271">
@@ -4727,7 +4850,7 @@
         <v>1997.0</v>
       </c>
       <c r="E271" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
     </row>
     <row r="272">
@@ -4744,7 +4867,7 @@
         <v>1998.0</v>
       </c>
       <c r="E272" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
     </row>
     <row r="273">
@@ -4761,7 +4884,7 @@
         <v>1999.0</v>
       </c>
       <c r="E273" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
     </row>
     <row r="274">
@@ -4778,7 +4901,7 @@
         <v>2000.0</v>
       </c>
       <c r="E274" t="s">
-        <v>7</v>
+        <v>36</v>
       </c>
     </row>
     <row r="275">
@@ -4795,7 +4918,7 @@
         <v>2001.0</v>
       </c>
       <c r="E275" t="s">
-        <v>7</v>
+        <v>37</v>
       </c>
     </row>
     <row r="276">
@@ -4812,7 +4935,7 @@
         <v>2002.0</v>
       </c>
       <c r="E276" t="s">
-        <v>7</v>
+        <v>38</v>
       </c>
     </row>
     <row r="277">
@@ -4829,7 +4952,7 @@
         <v>2003.0</v>
       </c>
       <c r="E277" t="s">
-        <v>7</v>
+        <v>39</v>
       </c>
     </row>
     <row r="278">
@@ -4846,7 +4969,7 @@
         <v>2004.0</v>
       </c>
       <c r="E278" t="s">
-        <v>7</v>
+        <v>40</v>
       </c>
     </row>
     <row r="279">
@@ -4863,7 +4986,7 @@
         <v>2005.0</v>
       </c>
       <c r="E279" t="s">
-        <v>7</v>
+        <v>41</v>
       </c>
     </row>
     <row r="280">
@@ -4880,7 +5003,7 @@
         <v>2006.0</v>
       </c>
       <c r="E280" t="s">
-        <v>7</v>
+        <v>42</v>
       </c>
     </row>
     <row r="281">
@@ -4897,7 +5020,7 @@
         <v>2007.0</v>
       </c>
       <c r="E281" t="s">
-        <v>7</v>
+        <v>43</v>
       </c>
     </row>
     <row r="282">
@@ -4914,7 +5037,7 @@
         <v>2008.0</v>
       </c>
       <c r="E282" t="s">
-        <v>7</v>
+        <v>44</v>
       </c>
     </row>
     <row r="283">
@@ -4931,7 +5054,7 @@
         <v>2009.0</v>
       </c>
       <c r="E283" t="s">
-        <v>7</v>
+        <v>45</v>
       </c>
     </row>
     <row r="284">
@@ -4948,7 +5071,7 @@
         <v>2010.0</v>
       </c>
       <c r="E284" t="s">
-        <v>7</v>
+        <v>46</v>
       </c>
     </row>
     <row r="285">
@@ -4965,7 +5088,7 @@
         <v>2011.0</v>
       </c>
       <c r="E285" t="s">
-        <v>7</v>
+        <v>47</v>
       </c>
     </row>
     <row r="286">
@@ -4982,7 +5105,7 @@
         <v>2012.0</v>
       </c>
       <c r="E286" t="s">
-        <v>7</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -5000,50 +5123,50 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>8</v>
+        <v>49</v>
       </c>
       <c r="B1" t="s">
-        <v>9</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>51</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>52</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>53</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>55</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
